--- a/src/test/resources/Documents/18110/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/18110/Base/JobPlanning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -62,43 +62,58 @@
     <t>PlannedResource</t>
   </si>
   <si>
-    <t>Laval Poster  2p</t>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Spiral</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>STL Outsourcing</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
+    <t>Bound Packed</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>STL Shipping and Receiving</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Front Cover   2p</t>
   </si>
   <si>
     <t>Proof Approval</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>HC Proof Approval</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
-    <t>HC Proof  Approval</t>
-  </si>
-  <si>
-    <t>Digital Print F/B 1x1</t>
-  </si>
-  <si>
-    <t>HC Nuvera DT120-1</t>
-  </si>
-  <si>
-    <t>Laval Poster 2p Packed</t>
-  </si>
-  <si>
-    <t>Boxing</t>
-  </si>
-  <si>
-    <t>HC Hand Bindery</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>STL Proof Approval</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Digital Print F 4x0</t>
+  </si>
+  <si>
+    <t>HC NexPress 1-4c</t>
+  </si>
+  <si>
+    <t>Text  2p</t>
+  </si>
+  <si>
+    <t>Digital Print F/B 4x4</t>
   </si>
 </sst>
 </file>
@@ -106,13 +121,208 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="41">
+  <fonts count="80">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -335,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -377,6 +587,45 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -474,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>19</v>
@@ -482,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="16">
         <v>23</v>
@@ -500,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -523,16 +772,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -541,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -556,10 +805,133 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s" s="40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="41">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="42">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="43">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="44">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="46">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="47">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s" s="48">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="49">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s" s="50">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="51">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s" s="52">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s" s="53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="54">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="55">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="56">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="57">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s" s="58">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="59">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s" s="60">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s" s="61">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="62">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s" s="63">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="64">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s" s="65">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s" s="66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="67">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="68">
         <v>27</v>
       </c>
-      <c r="M4" t="s" s="40">
-        <v>27</v>
+      <c r="C7" t="s" s="69">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="72">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s" s="73">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s" s="74">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="75">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s" s="76">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="77">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s" s="78">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s" s="79">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
